--- a/documentation/workout-buddy-sprint-backlog.xlsx
+++ b/documentation/workout-buddy-sprint-backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-108" windowWidth="13164" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="11508" yWindow="-12" windowWidth="11544" windowHeight="9660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -87,18 +87,6 @@
     <t>Sptint #1 4/4/2016</t>
   </si>
   <si>
-    <t>Sptint #1 4/5/2016</t>
-  </si>
-  <si>
-    <t>Sptint #1 4/6/2016</t>
-  </si>
-  <si>
-    <t>Sptint #1 4/7/2016</t>
-  </si>
-  <si>
-    <t>Sptint #1 4/8/2016</t>
-  </si>
-  <si>
     <t>Documentation PHP Doc</t>
   </si>
   <si>
@@ -109,6 +97,114 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>Sptint #2 4/5/2016</t>
+  </si>
+  <si>
+    <t>Sptint #3 4/6/2016</t>
+  </si>
+  <si>
+    <t>Sptint #4 4/7/2016</t>
+  </si>
+  <si>
+    <t>Sptint #5 4/8/2016</t>
+  </si>
+  <si>
+    <t>Sptint #6 4/11/2016 - 4/15/2016</t>
+  </si>
+  <si>
+    <t>Sptint #6 4/16/2016 - 4/17/2016</t>
+  </si>
+  <si>
+    <t>Sptint #6 4/18/2016 - 4/22/2015</t>
+  </si>
+  <si>
+    <t>Sptint #6 4/23/2016 - 4/24/2015</t>
+  </si>
+  <si>
+    <t>Sptint #6 4/25/2016 - 4/29/2015</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Bug fixers</t>
+  </si>
+  <si>
+    <t>Start routine pagination</t>
+  </si>
+  <si>
+    <t>Add Calendar</t>
+  </si>
+  <si>
+    <t>Add Start Date and End Date</t>
+  </si>
+  <si>
+    <t>Add Routine</t>
+  </si>
+  <si>
+    <t>View Routine</t>
+  </si>
+  <si>
+    <t>Add Calendar Event</t>
+  </si>
+  <si>
+    <t>Add Routine Days to Calendar Event</t>
+  </si>
+  <si>
+    <t>Delete Routine</t>
+  </si>
+  <si>
+    <t>Delete Routine/Delete All Calendar Events</t>
+  </si>
+  <si>
+    <t>Edit Routine</t>
+  </si>
+  <si>
+    <t>Add Exercise</t>
+  </si>
+  <si>
+    <t>Edit Exercise</t>
+  </si>
+  <si>
+    <t>Add Log event</t>
+  </si>
+  <si>
+    <t>Exercise Database/Images</t>
+  </si>
+  <si>
+    <t>Add Agenda</t>
+  </si>
+  <si>
+    <t>Analytics: Improvement Analysis</t>
+  </si>
+  <si>
+    <t>Analytics: Strengh Growth Analysis</t>
+  </si>
+  <si>
+    <t>Analytics: Workout History</t>
+  </si>
+  <si>
+    <t>Documentation/Maintenance Plan</t>
+  </si>
+  <si>
+    <t>Documentation/Deployment Plan</t>
+  </si>
+  <si>
+    <t>Sptint #6 4/30/2016 - 5/5/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation/User's Manual </t>
+  </si>
+  <si>
+    <t>Start Routine</t>
+  </si>
+  <si>
+    <t>View Log</t>
+  </si>
+  <si>
+    <t>About/Contact Page</t>
   </si>
 </sst>
 </file>
@@ -260,9 +356,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -277,6 +370,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,17 +760,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U135"/>
+  <dimension ref="A1:U172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.796875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="36.69921875" style="17" customWidth="1"/>
     <col min="2" max="2" width="11.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" style="22" customWidth="1"/>
     <col min="4" max="4" width="18.796875" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
@@ -682,7 +778,7 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="19"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -705,7 +801,7 @@
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="19"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -730,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="19"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -753,7 +849,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="19"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -776,7 +872,7 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="19"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -834,7 +930,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="5"/>
@@ -859,9 +955,9 @@
         <v>7</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="21"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
@@ -886,9 +982,9 @@
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
@@ -913,9 +1009,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -940,9 +1036,9 @@
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
@@ -964,10 +1060,10 @@
     </row>
     <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="F12" s="5"/>
@@ -992,9 +1088,9 @@
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
@@ -1019,9 +1115,9 @@
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="21"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
@@ -1046,9 +1142,9 @@
         <v>19</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="21"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
@@ -1070,10 +1166,10 @@
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="5"/>
@@ -1098,9 +1194,9 @@
         <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="21"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
@@ -1125,9 +1221,9 @@
         <v>11</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="21"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
@@ -1152,9 +1248,9 @@
         <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="21"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
@@ -1179,9 +1275,9 @@
         <v>12</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -1203,10 +1299,10 @@
     </row>
     <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="20"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="5"/>
@@ -1231,9 +1327,9 @@
         <v>20</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="21"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
@@ -1258,9 +1354,9 @@
         <v>18</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
@@ -1285,9 +1381,9 @@
         <v>15</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
@@ -1312,9 +1408,9 @@
         <v>13</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
@@ -1336,10 +1432,10 @@
     </row>
     <row r="26" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="20"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="5"/>
@@ -1364,9 +1460,9 @@
         <v>17</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
@@ -1388,12 +1484,12 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="21"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
@@ -1415,12 +1511,12 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="21"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
@@ -1442,12 +1538,12 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="21"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
@@ -1467,14 +1563,14 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+    <row r="31" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -1493,11 +1589,15 @@
       <c r="U31" s="5"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="A32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -1516,11 +1616,15 @@
       <c r="U32" s="5"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="A33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -1539,20 +1643,24 @@
       <c r="U33" s="5"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
+      <c r="A34" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -1561,21 +1669,23 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
+    <row r="35" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -1585,20 +1695,24 @@
       <c r="U35" s="5"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
+      <c r="A36" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -1608,20 +1722,24 @@
       <c r="U36" s="5"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
+      <c r="A37" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -1631,20 +1749,24 @@
       <c r="U37" s="5"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
+      <c r="A38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -1654,20 +1776,24 @@
       <c r="U38" s="5"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
+      <c r="A39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
@@ -1676,12 +1802,14 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="6"/>
+    <row r="40" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="7"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -1700,11 +1828,15 @@
       <c r="U40" s="5"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="A41" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -1723,11 +1855,15 @@
       <c r="U41" s="5"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="A42" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -1746,11 +1882,15 @@
       <c r="U42" s="5"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="A43" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -1769,11 +1909,15 @@
       <c r="U43" s="5"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="A44" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="4"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -1792,11 +1936,15 @@
       <c r="U44" s="5"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="A45" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="4"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -1815,11 +1963,15 @@
       <c r="U45" s="5"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="A46" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="4"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -1838,11 +1990,15 @@
       <c r="U46" s="5"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="A47" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="4"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -1861,11 +2017,15 @@
       <c r="U47" s="5"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="A48" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="4"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -1884,11 +2044,15 @@
       <c r="U48" s="5"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="A49" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="4"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -1907,11 +2071,15 @@
       <c r="U49" s="5"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="A50" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="4"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -1930,11 +2098,15 @@
       <c r="U50" s="5"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="A51" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="4"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -1953,11 +2125,15 @@
       <c r="U51" s="5"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="A52" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -1975,12 +2151,14 @@
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="6"/>
+    <row r="53" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="7"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1999,11 +2177,15 @@
       <c r="U53" s="5"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="A54" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -2022,11 +2204,15 @@
       <c r="U54" s="5"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="A55" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -2045,11 +2231,13 @@
       <c r="U55" s="5"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="A56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -2068,11 +2256,11 @@
       <c r="U56" s="5"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -2090,12 +2278,14 @@
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="6"/>
+    <row r="58" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="7"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -2114,11 +2304,13 @@
       <c r="U58" s="5"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="A59" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -2137,11 +2329,13 @@
       <c r="U59" s="5"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="A60" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -2160,11 +2354,13 @@
       <c r="U60" s="5"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="A61" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -2183,11 +2379,13 @@
       <c r="U61" s="5"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="A62" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -2205,12 +2403,14 @@
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="6"/>
+    <row r="63" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -2229,11 +2429,13 @@
       <c r="U63" s="5"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="A64" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -2252,11 +2454,11 @@
       <c r="U64" s="5"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -2275,11 +2477,11 @@
       <c r="U65" s="5"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -2298,11 +2500,11 @@
       <c r="U66" s="5"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -2320,12 +2522,14 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+    <row r="68" spans="1:21" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -2346,7 +2550,7 @@
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="19"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -2369,7 +2573,7 @@
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="19"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -2390,20 +2594,20 @@
       <c r="U70" s="5"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
@@ -2413,20 +2617,20 @@
       <c r="U71" s="5"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
@@ -2436,20 +2640,20 @@
       <c r="U72" s="5"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
@@ -2459,20 +2663,20 @@
       <c r="U73" s="5"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
@@ -2482,20 +2686,20 @@
       <c r="U74" s="5"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
@@ -2505,20 +2709,20 @@
       <c r="U75" s="5"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
@@ -2530,7 +2734,7 @@
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="19"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -2553,7 +2757,7 @@
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="19"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -2576,7 +2780,7 @@
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="19"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -2599,7 +2803,7 @@
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="19"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -2622,7 +2826,7 @@
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="19"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -2645,7 +2849,7 @@
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="19"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -2668,7 +2872,7 @@
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="19"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -2691,7 +2895,7 @@
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="19"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -2714,7 +2918,7 @@
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="19"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -2737,7 +2941,7 @@
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="19"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -2760,7 +2964,7 @@
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="19"/>
+      <c r="C87" s="18"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -2783,7 +2987,7 @@
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="19"/>
+      <c r="C88" s="18"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -2806,7 +3010,7 @@
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="19"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -2829,7 +3033,7 @@
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="19"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -2852,7 +3056,7 @@
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="19"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -2875,7 +3079,7 @@
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="19"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -2898,7 +3102,7 @@
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="19"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -2921,7 +3125,7 @@
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="19"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -2944,7 +3148,7 @@
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="19"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -2967,7 +3171,7 @@
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="19"/>
+      <c r="C96" s="18"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -2990,7 +3194,7 @@
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="19"/>
+      <c r="C97" s="18"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -3013,7 +3217,7 @@
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="19"/>
+      <c r="C98" s="18"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -3036,7 +3240,7 @@
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="19"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -3059,7 +3263,7 @@
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="6"/>
-      <c r="C100" s="19"/>
+      <c r="C100" s="18"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -3082,7 +3286,7 @@
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="6"/>
-      <c r="C101" s="19"/>
+      <c r="C101" s="18"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -3105,7 +3309,7 @@
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="6"/>
-      <c r="C102" s="19"/>
+      <c r="C102" s="18"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -3128,7 +3332,7 @@
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="19"/>
+      <c r="C103" s="18"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -3151,7 +3355,7 @@
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="19"/>
+      <c r="C104" s="18"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -3174,7 +3378,7 @@
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="6"/>
-      <c r="C105" s="19"/>
+      <c r="C105" s="18"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -3197,7 +3401,7 @@
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="6"/>
-      <c r="C106" s="19"/>
+      <c r="C106" s="18"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -3220,7 +3424,7 @@
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="6"/>
-      <c r="C107" s="19"/>
+      <c r="C107" s="18"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -3243,7 +3447,7 @@
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="6"/>
-      <c r="C108" s="19"/>
+      <c r="C108" s="18"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -3266,7 +3470,7 @@
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="6"/>
-      <c r="C109" s="19"/>
+      <c r="C109" s="18"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -3289,7 +3493,7 @@
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="6"/>
-      <c r="C110" s="19"/>
+      <c r="C110" s="18"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -3312,7 +3516,7 @@
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="6"/>
-      <c r="C111" s="19"/>
+      <c r="C111" s="18"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -3335,7 +3539,7 @@
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="6"/>
-      <c r="C112" s="19"/>
+      <c r="C112" s="18"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -3358,7 +3562,7 @@
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="6"/>
-      <c r="C113" s="19"/>
+      <c r="C113" s="18"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -3381,7 +3585,7 @@
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="19"/>
+      <c r="C114" s="18"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -3404,7 +3608,7 @@
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="6"/>
-      <c r="C115" s="19"/>
+      <c r="C115" s="18"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -3427,7 +3631,7 @@
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="6"/>
-      <c r="C116" s="19"/>
+      <c r="C116" s="18"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -3450,7 +3654,7 @@
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="19"/>
+      <c r="C117" s="18"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -3473,7 +3677,7 @@
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="6"/>
-      <c r="C118" s="19"/>
+      <c r="C118" s="18"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -3496,7 +3700,7 @@
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="19"/>
+      <c r="C119" s="18"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -3519,7 +3723,7 @@
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="19"/>
+      <c r="C120" s="18"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -3542,7 +3746,7 @@
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="19"/>
+      <c r="C121" s="18"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -3565,7 +3769,7 @@
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="19"/>
+      <c r="C122" s="18"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -3588,7 +3792,7 @@
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="19"/>
+      <c r="C123" s="18"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -3611,7 +3815,7 @@
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="19"/>
+      <c r="C124" s="18"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -3634,7 +3838,7 @@
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="19"/>
+      <c r="C125" s="18"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -3657,7 +3861,7 @@
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="19"/>
+      <c r="C126" s="18"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -3680,7 +3884,7 @@
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="6"/>
-      <c r="C127" s="19"/>
+      <c r="C127" s="18"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -3703,7 +3907,7 @@
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="6"/>
-      <c r="C128" s="19"/>
+      <c r="C128" s="18"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -3726,7 +3930,7 @@
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="6"/>
-      <c r="C129" s="19"/>
+      <c r="C129" s="18"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -3749,7 +3953,7 @@
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="6"/>
-      <c r="C130" s="19"/>
+      <c r="C130" s="18"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -3772,7 +3976,7 @@
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="6"/>
-      <c r="C131" s="19"/>
+      <c r="C131" s="18"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -3795,7 +3999,7 @@
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="6"/>
-      <c r="C132" s="19"/>
+      <c r="C132" s="18"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -3818,7 +4022,7 @@
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="6"/>
-      <c r="C133" s="19"/>
+      <c r="C133" s="18"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -3841,7 +4045,7 @@
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="6"/>
-      <c r="C134" s="19"/>
+      <c r="C134" s="18"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -3864,7 +4068,7 @@
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="19"/>
+      <c r="C135" s="18"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -3884,9 +4088,860 @@
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
     </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A136" s="11"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A137" s="11"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A138" s="11"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A139" s="11"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A140" s="11"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="5"/>
+      <c r="S140" s="5"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="5"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A141" s="11"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A142" s="11"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A143" s="11"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A144" s="11"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A145" s="11"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A146" s="11"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A147" s="11"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A148" s="11"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A149" s="11"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A150" s="11"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A151" s="11"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A152" s="11"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A153" s="11"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A154" s="11"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A155" s="11"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A156" s="11"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A157" s="11"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5"/>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A158" s="11"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A159" s="11"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5"/>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A160" s="11"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5"/>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A161" s="11"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5"/>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A162" s="11"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5"/>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A163" s="11"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="5"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="5"/>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A164" s="11"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5"/>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A165" s="11"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5"/>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A166" s="11"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5"/>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A167" s="11"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="5"/>
+      <c r="S167" s="5"/>
+      <c r="T167" s="5"/>
+      <c r="U167" s="5"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A168" s="11"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A169" s="11"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="5"/>
+      <c r="S169" s="5"/>
+      <c r="T169" s="5"/>
+      <c r="U169" s="5"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A170" s="11"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="5"/>
+      <c r="S170" s="5"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="5"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A171" s="11"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="5"/>
+      <c r="S171" s="5"/>
+      <c r="T171" s="5"/>
+      <c r="U171" s="5"/>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A172" s="11"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="5"/>
+      <c r="S172" s="5"/>
+      <c r="T172" s="5"/>
+      <c r="U172" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A34:N39"/>
+    <mergeCell ref="A71:N76"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/documentation/workout-buddy-sprint-backlog.xlsx
+++ b/documentation/workout-buddy-sprint-backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11508" yWindow="-12" windowWidth="11544" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="11508" yWindow="-12" windowWidth="11544" windowHeight="9588" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Profile Page</t>
   </si>
   <si>
-    <t>User Add grous public/private groups</t>
-  </si>
-  <si>
     <t xml:space="preserve">User Add members to group </t>
   </si>
   <si>
@@ -205,6 +202,12 @@
   </si>
   <si>
     <t>About/Contact Page</t>
+  </si>
+  <si>
+    <t>User Add groups public/private groups</t>
+  </si>
+  <si>
+    <t>Not Complete</t>
   </si>
 </sst>
 </file>
@@ -760,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U172"/>
+  <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -927,7 +930,7 @@
     </row>
     <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="19"/>
@@ -957,7 +960,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="20"/>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
@@ -984,7 +987,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="20"/>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
@@ -1011,7 +1014,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="20"/>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -1033,12 +1036,12 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="20"/>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
@@ -1060,7 +1063,7 @@
     </row>
     <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="19"/>
@@ -1085,12 +1088,12 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="20"/>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
@@ -1112,12 +1115,12 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="20"/>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
@@ -1139,12 +1142,12 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="20"/>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="19"/>
@@ -1191,12 +1194,12 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="20"/>
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
@@ -1218,12 +1221,12 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="20"/>
       <c r="D18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
@@ -1245,12 +1248,12 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="20"/>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
@@ -1272,12 +1275,12 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="20"/>
       <c r="D20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -1299,7 +1302,7 @@
     </row>
     <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="19"/>
@@ -1324,12 +1327,12 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="20"/>
       <c r="D22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
@@ -1351,12 +1354,12 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="20"/>
       <c r="D23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
@@ -1378,12 +1381,12 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="20"/>
       <c r="D24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
@@ -1405,12 +1408,12 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="20"/>
       <c r="D25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
@@ -1432,7 +1435,7 @@
     </row>
     <row r="26" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="19"/>
@@ -1457,12 +1460,12 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="20"/>
       <c r="D27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
@@ -1484,12 +1487,12 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="20"/>
       <c r="D28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
@@ -1511,12 +1514,12 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="20"/>
       <c r="D29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
@@ -1538,12 +1541,12 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="20"/>
       <c r="D30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
@@ -1565,7 +1568,7 @@
     </row>
     <row r="31" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="19"/>
@@ -1590,12 +1593,12 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="20"/>
       <c r="D32" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5"/>
@@ -1617,12 +1620,12 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="20"/>
       <c r="D33" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
@@ -1644,12 +1647,12 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="20"/>
       <c r="D34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="35" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="19"/>
@@ -1696,12 +1699,12 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="20"/>
       <c r="D36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
@@ -1723,12 +1726,12 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="20"/>
       <c r="D37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
@@ -1750,12 +1753,12 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="20"/>
       <c r="D38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
@@ -1777,12 +1780,12 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="20"/>
       <c r="D39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
@@ -1804,7 +1807,7 @@
     </row>
     <row r="40" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="19"/>
@@ -1829,12 +1832,12 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="20"/>
       <c r="D41" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
@@ -1856,12 +1859,12 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="20"/>
       <c r="D42" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
@@ -1883,12 +1886,12 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="20"/>
       <c r="D43" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
@@ -1910,12 +1913,12 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="20"/>
       <c r="D44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
@@ -1937,12 +1940,12 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="20"/>
       <c r="D45" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5"/>
@@ -1964,12 +1967,12 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="20"/>
       <c r="D46" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
@@ -1991,12 +1994,12 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="20"/>
       <c r="D47" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="5"/>
@@ -2018,12 +2021,12 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="20"/>
       <c r="D48" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
@@ -2045,12 +2048,12 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="20"/>
       <c r="D49" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
@@ -2072,12 +2075,12 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="20"/>
       <c r="D50" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
@@ -2099,12 +2102,12 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="20"/>
       <c r="D51" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
@@ -2126,12 +2129,12 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="20"/>
       <c r="D52" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
@@ -2153,7 +2156,7 @@
     </row>
     <row r="53" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="19"/>
@@ -2178,12 +2181,12 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="20"/>
       <c r="D54" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
@@ -2205,12 +2208,12 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="20"/>
       <c r="D55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
@@ -2232,11 +2235,13 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -2255,12 +2260,14 @@
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
+    <row r="57" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -2278,14 +2285,16 @@
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="14" t="s">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="4"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -2305,11 +2314,13 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="20"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -2330,11 +2341,13 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="20"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -2355,11 +2368,13 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="20"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -2378,14 +2393,14 @@
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
+    <row r="62" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -2403,14 +2418,16 @@
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="14" t="s">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="4"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -2430,11 +2447,13 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="20"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -2453,12 +2472,14 @@
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="4"/>
+    <row r="65" spans="1:21" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -2477,11 +2498,11 @@
       <c r="U65" s="5"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="4"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -2500,11 +2521,11 @@
       <c r="U66" s="5"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="4"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -2522,23 +2543,21 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
     </row>
-    <row r="68" spans="1:21" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
@@ -2548,20 +2567,20 @@
       <c r="U68" s="5"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
@@ -2571,20 +2590,20 @@
       <c r="U69" s="5"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
@@ -2663,20 +2682,20 @@
       <c r="U73" s="5"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
@@ -2686,20 +2705,20 @@
       <c r="U74" s="5"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
@@ -2709,20 +2728,20 @@
       <c r="U75" s="5"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
@@ -4870,78 +4889,9 @@
       <c r="T169" s="5"/>
       <c r="U169" s="5"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A170" s="11"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
-      <c r="L170" s="5"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="5"/>
-      <c r="O170" s="5"/>
-      <c r="P170" s="5"/>
-      <c r="Q170" s="5"/>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5"/>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A171" s="11"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
-      <c r="K171" s="5"/>
-      <c r="L171" s="5"/>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5"/>
-      <c r="O171" s="5"/>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5"/>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5"/>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A172" s="11"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5"/>
-      <c r="K172" s="5"/>
-      <c r="L172" s="5"/>
-      <c r="M172" s="5"/>
-      <c r="N172" s="5"/>
-      <c r="O172" s="5"/>
-      <c r="P172" s="5"/>
-      <c r="Q172" s="5"/>
-      <c r="R172" s="5"/>
-      <c r="S172" s="5"/>
-      <c r="T172" s="5"/>
-      <c r="U172" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A71:N76"/>
+    <mergeCell ref="A68:N73"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
